--- a/testFile/case/userCase.xlsx
+++ b/testFile/case/userCase.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70D1BDC-250F-4959-8D72-7B0C05EC635C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14040" windowHeight="5100" activeTab="1"/>
+    <workbookView minimized="1" xWindow="1605" yWindow="945" windowWidth="11820" windowHeight="9120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>path</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,7 +30,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/query</t>
+    <t>params</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcc.taobao.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cc/json/mobile_tel_segment.htm</t>
+  </si>
+  <si>
+    <t>{'tel':'18109045175'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tel_true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tel_failse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'tel':'1810904517'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>casename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcc.taobao.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cc/json/mobile_tel_segment.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>casename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>province:'四川'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -37,100 +93,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参数错误</t>
-  </si>
-  <si>
-    <t>params</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.kuaidi100.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tcc.taobao.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/cc/json/mobile_tel_segment.htm</t>
-  </si>
-  <si>
-    <t>{'tel':'18109045175'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tel_true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tel_failse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'tel':'1810904517'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'type':'zhongtong','postid':'373710374504275#'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>casename</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_yuantong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_zhongtong01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_zhongtong02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'type': 'yuantong', 'postid': '3710374504275'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tcc.taobao.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/cc/json/mobile_tel_segment.htm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>casename</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'type':'zhongtong','postid':'3710374504275'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>province:'四川'</t>
+    <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -234,74 +204,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -314,14 +216,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -389,6 +291,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -424,6 +343,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -599,11 +535,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -617,7 +553,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -626,73 +562,47 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.25">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.25">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>21</v>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20.25">
-      <c r="A4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>5</v>
+      <c r="A4" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -713,23 +623,16 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="http://www.kuaidi100.com/query"/>
-    <hyperlink ref="C2:C4" r:id="rId2" display="http://www.kuaidi100.com/query"/>
-    <hyperlink ref="D3" r:id="rId3"/>
-    <hyperlink ref="D2:D4" r:id="rId4" display="http://www.kuaidi100.com"/>
-    <hyperlink ref="D2" r:id="rId5"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -744,7 +647,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -753,10 +656,10 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -764,47 +667,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/testFile/case/userCase.xlsx
+++ b/testFile/case/userCase.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70D1BDC-250F-4959-8D72-7B0C05EC635C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C5590F-12E3-4CD3-9A71-4BDCEEF60565}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1605" yWindow="945" windowWidth="11820" windowHeight="9120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1800" windowWidth="11820" windowHeight="9120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>path</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,35 +65,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://tcc.taobao.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cc/json/mobile_tel_segment.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://tcc.taobao.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/cc/json/mobile_tel_segment.htm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>casename</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>province:'四川'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>post</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/health_app_v2/noAuth/users/pwd/login</t>
+  </si>
+  <si>
+    <t>https://cloud.synwing.com:8443</t>
+  </si>
+  <si>
+    <t>{"uniqueCode":"9f773cdde5d268c0c191000a6ded7ec9","pwd":"3d4f2bf07dc1be38b20cd6e46949a1071f9d0e3d","login":"18100000001","appType":"SYN_HEALTH_MED"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uniqueCode":"9f773cdde5d268c0c191000a6ded7ec9","pwd":"3d4f2bf07dc1be38b20cd6e46949a1071f9d0e3d","login":"18100000000","appType":"SYN_HEALTH_MED"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login-002</t>
+  </si>
+  <si>
+    <t>casename1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,7 +192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -183,20 +200,34 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -538,93 +569,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="10"/>
+    <col min="3" max="3" width="41.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="54.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="40.5">
+      <c r="A2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20.25">
-      <c r="A2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="40.5">
+      <c r="A3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5">
+      <c r="D3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="5">
+    <row r="4" spans="1:6" ht="20.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="20.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-    </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{99407F2F-DC15-4938-9EF0-5C263944EE1F}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{CA45BA54-F8A6-4C49-8335-965E4ABC193D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -641,13 +692,13 @@
     <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.875" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -658,7 +709,7 @@
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -666,42 +717,42 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>16</v>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/testFile/case/userCase.xlsx
+++ b/testFile/case/userCase.xlsx
@@ -3,20 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C5590F-12E3-4CD3-9A71-4BDCEEF60565}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B04DB5-6211-49E3-9BF7-87792196867B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1800" windowWidth="11820" windowHeight="9120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1800" windowWidth="11820" windowHeight="9120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="getZone" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="getZone" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>path</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +112,10 @@
   </si>
   <si>
     <t>casename1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -118,6 +123,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0;[Red]0"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -192,7 +201,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -225,7 +234,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -567,9 +588,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -578,7 +601,7 @@
     <col min="3" max="3" width="41.625" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.625" style="10" customWidth="1"/>
     <col min="5" max="5" width="54.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="17" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
@@ -598,7 +621,7 @@
       <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -618,8 +641,8 @@
       <c r="E2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="14">
-        <v>1</v>
+      <c r="F2" s="18" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="40.5">
@@ -638,35 +661,9 @@
       <c r="E3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="20.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="F3" s="18" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -680,11 +677,127 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43712683-851E-467A-B4C9-1D1486355A85}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="18.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="10"/>
+    <col min="3" max="3" width="41.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="54.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75">
+      <c r="A1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="40.5">
+      <c r="A2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="40.5">
+      <c r="A3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{6279C08B-D3F4-47EC-BA57-1E2EE8C662FA}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{91C75E74-08C0-47AF-AA67-3C4254B9DCDF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/testFile/case/userCase.xlsx
+++ b/testFile/case/userCase.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B04DB5-6211-49E3-9BF7-87792196867B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01221410-6368-4C46-BC41-2EA8839899B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1800" windowWidth="11820" windowHeight="9120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t>path</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,12 @@
   <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uniqueCode":"90b2fee3d850e74cb3b443e2ef3abc5c","appType":"SYN_HEALTH_MED","login":"18100000004","pwd":"7c4a8d09ca3762af61e59520943dc26494f8941b"}</t>
+  </si>
+  <si>
+    <t>{"uniqueCode":"90b2fee3d850e74cb3b443e2ef3abc5c","appType":"SYN_HEALTH_MED","login":"18100000004","pwd":"7c4a8d09ca3762af61e59520943dc26494f8942b"}</t>
   </si>
 </sst>
 </file>
@@ -590,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -607,7 +613,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
       <c r="A1" s="8" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -639,7 +645,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>25</v>
@@ -659,10 +665,10 @@
         <v>19</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -796,7 +802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/testFile/case/userCase.xlsx
+++ b/testFile/case/userCase.xlsx
@@ -3,21 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01221410-6368-4C46-BC41-2EA8839899B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2E90BA-0D7E-48D0-98B8-E9190D2F4AC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="getZone" sheetId="2" r:id="rId3"/>
+    <sheet name="Api" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>path</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,10 +26,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>msg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>params</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -39,49 +34,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://tcc.taobao.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/cc/json/mobile_tel_segment.htm</t>
-  </si>
-  <si>
-    <t>{'tel':'18109045175'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tel_true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tel_failse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'tel':'1810904517'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tcc.taobao.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/cc/json/mobile_tel_segment.htm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>province:'四川'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>post</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,14 +52,6 @@
     <t>https://cloud.synwing.com:8443</t>
   </si>
   <si>
-    <t>{"uniqueCode":"9f773cdde5d268c0c191000a6ded7ec9","pwd":"3d4f2bf07dc1be38b20cd6e46949a1071f9d0e3d","login":"18100000001","appType":"SYN_HEALTH_MED"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"uniqueCode":"9f773cdde5d268c0c191000a6ded7ec9","pwd":"3d4f2bf07dc1be38b20cd6e46949a1071f9d0e3d","login":"18100000000","appType":"SYN_HEALTH_MED"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>login-001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,18 +59,38 @@
     <t>login-002</t>
   </si>
   <si>
-    <t>casename1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{"uniqueCode":"90b2fee3d850e74cb3b443e2ef3abc5c","appType":"SYN_HEALTH_MED","login":"18100000004","pwd":"7c4a8d09ca3762af61e59520943dc26494f8942b"}</t>
+  </si>
+  <si>
     <t>{"uniqueCode":"90b2fee3d850e74cb3b443e2ef3abc5c","appType":"SYN_HEALTH_MED","login":"18100000004","pwd":"7c4a8d09ca3762af61e59520943dc26494f8941b"}</t>
-  </si>
-  <si>
-    <t>{"uniqueCode":"90b2fee3d850e74cb3b443e2ef3abc5c","appType":"SYN_HEALTH_MED","login":"18100000004","pwd":"7c4a8d09ca3762af61e59520943dc26494f8942b"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/health_app_v2/platform/app/target/addSymptom</t>
+  </si>
+  <si>
+    <t>/health_app_v2/platform/app/target/addSymptom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addSymptom-seccess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addSymptom-fail01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"recordId":"","symptom":"看电视"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"recordId":"","symptom":"看电视1","targetId":"cbbdbf6f-d8b6-4dd8-a389-0f54a03ab5d4"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -207,21 +175,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -596,78 +551,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="10"/>
-    <col min="3" max="3" width="41.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="54.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="18.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="41.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="54.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
-      <c r="A1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>17</v>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="40.5">
-      <c r="A2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>25</v>
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="40.5">
-      <c r="A3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="18">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="11">
         <v>0</v>
       </c>
     </row>
@@ -686,106 +641,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43712683-851E-467A-B4C9-1D1486355A85}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="10"/>
-    <col min="3" max="3" width="41.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="54.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="18.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="41.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="54.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
-      <c r="A1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="27">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27">
+      <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="40.5">
-      <c r="A2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="40.5">
-      <c r="A3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="15">
-        <v>1</v>
+      <c r="F3" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="15">
-        <v>1</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="16"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="16"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -796,90 +749,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-</worksheet>
 </file>